--- a/src/main/resources/report/ExcelReport.xlsx
+++ b/src/main/resources/report/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>AD</t>
   </si>
@@ -53,160 +53,208 @@
     <t>20.01.1990</t>
   </si>
   <si>
+    <t>İstanbul</t>
+  </si>
+  <si>
+    <t>s.celik@hotmail.com</t>
+  </si>
+  <si>
+    <t>5397806627</t>
+  </si>
+  <si>
+    <t>Olumlu</t>
+  </si>
+  <si>
+    <t>Çalışıyor</t>
+  </si>
+  <si>
+    <t>Dumlupınar</t>
+  </si>
+  <si>
+    <t>Dogru Eşleşme.</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Duman</t>
+  </si>
+  <si>
+    <t>12.12.1998</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>ahmet.duman@gmail.com</t>
+  </si>
+  <si>
+    <t>5452233422</t>
+  </si>
+  <si>
+    <t>İTÜ</t>
+  </si>
+  <si>
+    <t>Telefon ve mail eşleşmedi</t>
+  </si>
+  <si>
+    <t>Tuncay</t>
+  </si>
+  <si>
+    <t>Demir</t>
+  </si>
+  <si>
+    <t>01.03.2009</t>
+  </si>
+  <si>
+    <t>İzmir</t>
+  </si>
+  <si>
+    <t>tuncay.demir@optiim.com</t>
+  </si>
+  <si>
+    <t>5351239232</t>
+  </si>
+  <si>
+    <t>Olumsuz</t>
+  </si>
+  <si>
+    <t>Çalışmıyor</t>
+  </si>
+  <si>
+    <t>Odtü</t>
+  </si>
+  <si>
+    <t>Zeynep</t>
+  </si>
+  <si>
+    <t>Altınsoy</t>
+  </si>
+  <si>
+    <t>05.05.1997</t>
+  </si>
+  <si>
+    <t>Diyarbakır</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Bilinmiyor</t>
+  </si>
+  <si>
+    <t>İstanbul Üniv.</t>
+  </si>
+  <si>
+    <t>Mail ve telefon numaraları boş olduğu için kontrole alınmadı.</t>
+  </si>
+  <si>
+    <t>Asli</t>
+  </si>
+  <si>
+    <t>Gümüşsu</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>a.gumussu@hotmail.com</t>
+  </si>
+  <si>
+    <t>5437678987</t>
+  </si>
+  <si>
+    <t>Serdar</t>
+  </si>
+  <si>
+    <t>Ay</t>
+  </si>
+  <si>
+    <t>12.02.1978</t>
+  </si>
+  <si>
+    <t>Muğla</t>
+  </si>
+  <si>
+    <t>s.ay@hotmail.com</t>
+  </si>
+  <si>
+    <t>Kontrol edilmedi</t>
+  </si>
+  <si>
+    <t>Kastamonu Üniv.</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Beşli</t>
+  </si>
+  <si>
+    <t>12.01.1990</t>
+  </si>
+  <si>
+    <t>m.besli@optiim.com</t>
+  </si>
+  <si>
+    <t>5348778000</t>
+  </si>
+  <si>
+    <t>Mesut</t>
+  </si>
+  <si>
+    <t>04.05.1978</t>
+  </si>
+  <si>
+    <t>mesutcelik@optiim.com</t>
+  </si>
+  <si>
+    <t>5557879340</t>
+  </si>
+  <si>
+    <t>Selçuk Üniv.</t>
+  </si>
+  <si>
+    <t>Hasibe</t>
+  </si>
+  <si>
+    <t>11.10.2000</t>
+  </si>
+  <si>
+    <t>5318900098</t>
+  </si>
+  <si>
+    <t>Hakan</t>
+  </si>
+  <si>
+    <t>Soylu</t>
+  </si>
+  <si>
+    <t>10.04.2008</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>h.soylu@optiim.com</t>
+  </si>
+  <si>
+    <t>5318900228</t>
+  </si>
+  <si>
+    <t>Bilkent</t>
+  </si>
+  <si>
     <t>Adana</t>
   </si>
   <si>
-    <t>s.celik@hotmail.com</t>
-  </si>
-  <si>
-    <t>5397806627</t>
-  </si>
-  <si>
-    <t>Olumlu</t>
+    <t>sezaicelik12@hotmail.com</t>
+  </si>
+  <si>
+    <t>5397806619</t>
   </si>
   <si>
     <t>Marmara</t>
-  </si>
-  <si>
-    <t>Telefon numaraları eşleşmiyor.Mailler eşleşmiyor.</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Duman</t>
-  </si>
-  <si>
-    <t>12.12.1998</t>
-  </si>
-  <si>
-    <t>ahmet.duman@gmail.com</t>
-  </si>
-  <si>
-    <t>5452233422</t>
-  </si>
-  <si>
-    <t>Dogru Eşleşme.</t>
-  </si>
-  <si>
-    <t>Tuncay</t>
-  </si>
-  <si>
-    <t>Demir</t>
-  </si>
-  <si>
-    <t>01.03.2009</t>
-  </si>
-  <si>
-    <t>tuncay.demir@optiim.com</t>
-  </si>
-  <si>
-    <t>5351239232</t>
-  </si>
-  <si>
-    <t>Olumsuz</t>
-  </si>
-  <si>
-    <t>Zeynep</t>
-  </si>
-  <si>
-    <t>Altınsoy</t>
-  </si>
-  <si>
-    <t>05.05.1997</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Bilinmiyor</t>
-  </si>
-  <si>
-    <t>Asli</t>
-  </si>
-  <si>
-    <t>Gümüşsu</t>
-  </si>
-  <si>
-    <t>a.gumussu@hotmail.com</t>
-  </si>
-  <si>
-    <t>5437678987</t>
-  </si>
-  <si>
-    <t>Serdar</t>
-  </si>
-  <si>
-    <t>Ay</t>
-  </si>
-  <si>
-    <t>12.02.1978</t>
-  </si>
-  <si>
-    <t>s.ay@hotmail.com</t>
-  </si>
-  <si>
-    <t>Kontrol edilmedi</t>
-  </si>
-  <si>
-    <t>Mehmet</t>
-  </si>
-  <si>
-    <t>Beşli</t>
-  </si>
-  <si>
-    <t>12.01.1990</t>
-  </si>
-  <si>
-    <t>m.besli@optiim.com</t>
-  </si>
-  <si>
-    <t>5348778000</t>
-  </si>
-  <si>
-    <t>Mesut</t>
-  </si>
-  <si>
-    <t>04.05.1978</t>
-  </si>
-  <si>
-    <t>mesutcelik@optiim.com</t>
-  </si>
-  <si>
-    <t>5557879340</t>
-  </si>
-  <si>
-    <t>Hasibe</t>
-  </si>
-  <si>
-    <t>11.10.2000</t>
-  </si>
-  <si>
-    <t>5318900098</t>
-  </si>
-  <si>
-    <t>Hakan</t>
-  </si>
-  <si>
-    <t>Soylu</t>
-  </si>
-  <si>
-    <t>10.04.2008</t>
-  </si>
-  <si>
-    <t>h.soylu@optiim.com</t>
-  </si>
-  <si>
-    <t>5318900228</t>
-  </si>
-  <si>
-    <t>sezaicelik12@hotmail.com</t>
-  </si>
-  <si>
-    <t>5397806619</t>
-  </si>
-  <si>
-    <t>Dogru Eşleşme.Telefon numaraları eşleşiyor.Mailler eşleşiyor.</t>
   </si>
 </sst>
 </file>
@@ -312,293 +360,283 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
         <v>17</v>
       </c>
+      <c r="I8"/>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I10"/>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -612,13 +650,13 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -627,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
